--- a/biology/Médecine/Lichen_scléroatrophique/Lichen_scléroatrophique.xlsx
+++ b/biology/Médecine/Lichen_scléroatrophique/Lichen_scléroatrophique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lichen_scl%C3%A9roatrophique</t>
+          <t>Lichen_scléroatrophique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lichen scléroatrophique (LSA) ou lichen scléreux, également dénommé balanite scléreuse oblitérante lorsqu'il affecte le pénis, est une maladie chronique de la peau et des muqueuses touchant principalement les zones génitales de l'homme et de la femme. Il peut apparaître à tout âge mais surtout après la ménopause, et n'est pas contagieux.
 À ce jour, la cause de cette maladie n'est pas connue.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lichen_scl%C3%A9roatrophique</t>
+          <t>Lichen_scléroatrophique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez la femme, il se traduit par un prurit vulvaire (démangeaisons surtout nocturnes) ; la peau devient blanchâtre, nacrée, se fragilise et s'atrophie avec le temps (ex. : effacement des lèvres, disparition du clitoris, etc.). Le lichen peut être localisé ou s'étendre aux régions périnéale et périanale. Les rapports sexuels en deviennent altérés à cause des douleurs pendant et après l'acte (fissuration de la peau, saignements).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lichen_scl%C3%A9roatrophique</t>
+          <t>Lichen_scléroatrophique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les seuls traitements existants sont des crèmes à fort dosage en cortisone. Pour les hommes, la circoncision peut être bénéfique.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lichen_scl%C3%A9roatrophique</t>
+          <t>Lichen_scléroatrophique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Facteur de risque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'homme, il augmente le risque de développer un cancer du pénis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme, il augmente le risque de développer un cancer du pénis.
 </t>
         </is>
       </c>
